--- a/public/record/ToCustomer_7677.xlsx
+++ b/public/record/ToCustomer_7677.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,34 +25,37 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>Simpson Salazar Library DAS Installation</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/18/2022</t>
+    <t>04/28/2023</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
   </si>
   <si>
+    <t>6408</t>
+  </si>
+  <si>
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
+    <t>4920-0142-001 002 003</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
   </si>
   <si>
-    <t>Kim, Hyun Myung</t>
+    <t>Ju, Daniel</t>
   </si>
   <si>
     <t>CONTRACTOR</t>
@@ -76,6 +79,9 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>No on-site work</t>
+  </si>
+  <si>
     <t>INSPECTIONS</t>
   </si>
   <si>
@@ -95,9 +101,6 @@
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1354,42 +1357,42 @@
         <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="16">
-        <v>5733</v>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1398,10 +1401,10 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1491,13 +1494,15 @@
       <c r="D15" s="48">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1509,21 +1514,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1558,7 +1563,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1570,7 +1575,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
